--- a/Data/F022.PDBC2.FLU.D007.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC2.FLU.D007.Z.CLP.D.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">

--- a/Data/F022.PDBC2.FLU.D007.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC2.FLU.D007.Z.CLP.D.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
